--- a/clicks2.xlsx
+++ b/clicks2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Box Sync\R-scripts\scraper\click_automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randa_dauphinee\Documents\MarketData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1899613C-E979-462F-BD56-8C20377BCA5C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30581DF5-6428-4E05-8542-C2D164BD6438}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{889B1BD3-D8B7-4F82-9DEE-0C36FF33A955}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{889B1BD3-D8B7-4F82-9DEE-0C36FF33A955}"/>
   </bookViews>
   <sheets>
     <sheet name="url" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>#sfcontent &gt; div.rf_ctlwrap &gt; div.rf_ctl2_opt &gt; div.exportButton &gt; span &gt; a</t>
   </si>
@@ -90,9 +90,6 @@
     <t>{"click_data":[{"click1":"#sfcontent &gt; div.rf_ctlwrap &gt; div.rf_ctl2_opt &gt; div.roundingButton &gt; span &gt; a.rf_rounddn"}]}</t>
   </si>
   <si>
-    <t>MSFT-MarketData</t>
-  </si>
-  <si>
     <t>login_step</t>
   </si>
   <si>
@@ -106,6 +103,15 @@
   </si>
   <si>
     <t>https://www.morningstar.com/sign-in</t>
+  </si>
+  <si>
+    <t>MSFT - Income Statement URL</t>
+  </si>
+  <si>
+    <t>MSFT - Balance Sheet URL</t>
+  </si>
+  <si>
+    <t>MSFT - Ratios URL</t>
   </si>
 </sst>
 </file>
@@ -490,16 +496,17 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="5" max="5" width="112.28515625" customWidth="1"/>
+    <col min="6" max="6" width="88.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -516,7 +523,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -527,7 +534,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -547,7 +554,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -564,7 +571,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -579,21 +586,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
         <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
